--- a/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.004_scores.xlsx
@@ -70,67 +70,67 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.310077519379845</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1305555555555556</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +810,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7830188679245284</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +836,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7804878048780488</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,13 +862,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.7578125</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -940,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.75625</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +966,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +992,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1044,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1096,13 +1096,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1122,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1148,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1174,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.611764705882353</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1200,13 +1200,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5851063829787234</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1226,13 +1226,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1278,13 +1278,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5423728813559322</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,13 +1304,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
